--- a/Propeller Packages/APC_11x7/Prop_sections.xlsx
+++ b/Propeller Packages/APC_11x7/Prop_sections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egegs\Desktop\VortexBlade Exc\StandaloneDesktopApp2\output\build\Propeller Packages\APC_11x7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olddominion-my.sharepoint.com/personal/ekonu001_odu_edu/Documents/PhD ODU/Post PhD - New Work/BEMT + Free-Wake/VortexBlade Exc/Propeller Packages/APC_11x7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AB5FBB-619B-4652-9F61-00CB6031E342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="445" documentId="8_{8E92A1BF-0622-49A5-B6C3-CC8229BC9A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9E525F6-CCA4-49E8-9796-D3C1970E2521}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{5615C66F-3B0A-41D0-BEB5-068B53D4D7A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5615C66F-3B0A-41D0-BEB5-068B53D4D7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>span(r/R) =</t>
   </si>
   <si>
-    <t>chord(x) =</t>
-  </si>
-  <si>
     <t>Span(m)=</t>
   </si>
   <si>
@@ -58,16 +55,18 @@
     <t>Span(m) =</t>
   </si>
   <si>
-    <t>Foil Names =</t>
+    <t>Foil Name =</t>
+  </si>
+  <si>
+    <t>chord(m) =</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -153,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -215,6 +214,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -223,20 +235,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -256,6 +264,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,429 +567,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A94C44-A6E9-40A2-964B-298D7ACDDD69}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S9" sqref="S9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="6" width="9.44140625" customWidth="1"/>
-    <col min="7" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="7">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1.26E-2</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D1" s="3">
         <v>3.5814071628143256E-2</v>
       </c>
-      <c r="C1" s="7">
+      <c r="E1" s="3">
         <v>3.9370078740157487E-2</v>
       </c>
-      <c r="D1" s="7">
+      <c r="F1" s="3">
         <v>4.2926085852171704E-2</v>
       </c>
-      <c r="E1" s="7">
+      <c r="G1" s="3">
         <v>4.7005334010668025E-2</v>
       </c>
-      <c r="F1" s="7">
+      <c r="H1" s="3">
         <v>5.4066548133096269E-2</v>
       </c>
-      <c r="G1" s="7">
+      <c r="I1" s="3">
         <v>6.1148082296164599E-2</v>
       </c>
-      <c r="H1" s="7">
+      <c r="J1" s="3">
         <v>6.8229616459232922E-2</v>
       </c>
-      <c r="I1" s="7">
+      <c r="K1" s="3">
         <v>7.5311150622301246E-2</v>
       </c>
-      <c r="J1" s="7">
+      <c r="L1" s="3">
         <v>8.2392684785369569E-2</v>
       </c>
-      <c r="K1" s="7">
+      <c r="M1" s="3">
         <v>8.9474218948437906E-2</v>
       </c>
-      <c r="L1" s="7">
+      <c r="N1" s="3">
         <v>9.6555753111506229E-2</v>
       </c>
-      <c r="M1" s="7">
+      <c r="O1" s="3">
         <v>0.10363728727457455</v>
       </c>
-      <c r="N1" s="7">
+      <c r="P1" s="3">
         <v>0.11071882143764288</v>
       </c>
-      <c r="O1" s="7">
+      <c r="Q1" s="3">
         <v>0.11780035560071121</v>
       </c>
-      <c r="P1" s="7">
+      <c r="R1" s="3">
         <v>0.12488188976377954</v>
       </c>
-      <c r="Q1" s="7">
+      <c r="S1" s="3">
         <v>0.13196342392684787</v>
       </c>
-      <c r="R1" s="7">
+      <c r="T1" s="3">
         <v>0.13876809753619501</v>
       </c>
-      <c r="S1" s="9">
+      <c r="U1" s="3">
         <v>0.13970027940055882</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <f>B1/$A8</f>
+        <v>9.0193090909090903E-2</v>
+      </c>
+      <c r="C2" s="4">
+        <f>C1/$A8</f>
+        <v>0.17895454545454545</v>
+      </c>
+      <c r="D2" s="4">
+        <f>D1/$A8</f>
         <v>0.25636363636363635</v>
       </c>
-      <c r="C2" s="3">
-        <f t="shared" ref="C2:Q2" si="0">C1/$A8</f>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2:S2" si="0">E1/$A8</f>
         <v>0.2818181818181818</v>
       </c>
-      <c r="D2" s="3">
+      <c r="F2" s="4">
         <f t="shared" si="0"/>
         <v>0.30727272727272725</v>
       </c>
-      <c r="E2" s="3">
+      <c r="G2" s="4">
         <f t="shared" si="0"/>
         <v>0.33647272727272726</v>
       </c>
-      <c r="F2" s="3">
+      <c r="H2" s="4">
         <f t="shared" si="0"/>
         <v>0.38701818181818182</v>
       </c>
-      <c r="G2" s="3">
+      <c r="I2" s="4">
         <f t="shared" si="0"/>
         <v>0.43770909090909088</v>
       </c>
-      <c r="H2" s="3">
+      <c r="J2" s="4">
         <f t="shared" si="0"/>
         <v>0.48839999999999995</v>
       </c>
-      <c r="I2" s="3">
+      <c r="K2" s="4">
         <f t="shared" si="0"/>
         <v>0.53909090909090907</v>
       </c>
-      <c r="J2" s="3">
+      <c r="L2" s="4">
         <f t="shared" si="0"/>
         <v>0.58978181818181807</v>
       </c>
-      <c r="K2" s="3">
+      <c r="M2" s="4">
         <f t="shared" si="0"/>
         <v>0.6404727272727273</v>
       </c>
-      <c r="L2" s="3">
+      <c r="N2" s="4">
         <f t="shared" si="0"/>
         <v>0.69116363636363631</v>
       </c>
-      <c r="M2" s="3">
+      <c r="O2" s="4">
         <f t="shared" si="0"/>
         <v>0.74185454545454543</v>
       </c>
-      <c r="N2" s="3">
+      <c r="P2" s="4">
         <f t="shared" si="0"/>
         <v>0.79254545454545444</v>
       </c>
-      <c r="O2" s="3">
+      <c r="Q2" s="4">
         <f t="shared" si="0"/>
         <v>0.84323636363636356</v>
       </c>
-      <c r="P2" s="3">
+      <c r="R2" s="4">
         <f t="shared" si="0"/>
         <v>0.89392727272727268</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="S2" s="4">
         <f t="shared" si="0"/>
         <v>0.9446181818181818</v>
       </c>
-      <c r="R2" s="3">
-        <f>R1/$A8</f>
+      <c r="T2" s="4">
+        <f>T1/$A8</f>
         <v>0.99332727272727217</v>
       </c>
-      <c r="S2" s="3">
-        <f>S1/$A8</f>
+      <c r="U2" s="4">
+        <f>U1/$A8</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D3" s="3">
         <v>2.3383286766573533E-2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="E3" s="3">
         <v>2.3172466344932693E-2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="F3" s="3">
         <v>2.3040386080772163E-2</v>
       </c>
-      <c r="E3" s="7">
+      <c r="G3" s="3">
         <v>2.2971805943611888E-2</v>
       </c>
-      <c r="F3" s="7">
+      <c r="H3" s="3">
         <v>2.3012446024892053E-2</v>
       </c>
-      <c r="G3" s="7">
+      <c r="I3" s="3">
         <v>2.3175006350012701E-2</v>
       </c>
-      <c r="H3" s="7">
+      <c r="J3" s="3">
         <v>2.3360426720853443E-2</v>
       </c>
-      <c r="I3" s="7">
+      <c r="K3" s="3">
         <v>2.3467106934213871E-2</v>
       </c>
-      <c r="J3" s="7">
+      <c r="L3" s="3">
         <v>2.3403606807213616E-2</v>
       </c>
-      <c r="K3" s="7">
+      <c r="M3" s="3">
         <v>2.3065786131572265E-2</v>
       </c>
-      <c r="L3" s="7">
+      <c r="N3" s="3">
         <v>2.2357124714249429E-2</v>
       </c>
-      <c r="M3" s="7">
+      <c r="O3" s="3">
         <v>2.1178562357124717E-2</v>
       </c>
-      <c r="N3" s="7">
+      <c r="P3" s="3">
         <v>1.9428498856997715E-2</v>
       </c>
-      <c r="O3" s="7">
+      <c r="Q3" s="3">
         <v>1.7010414020828042E-2</v>
       </c>
-      <c r="P3" s="7">
+      <c r="R3" s="3">
         <v>1.3827787655575312E-2</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="S3" s="3">
         <v>9.8044196088392186E-3</v>
       </c>
-      <c r="R3" s="7">
+      <c r="T3" s="3">
         <v>3.7363474726949458E-3</v>
       </c>
-      <c r="S3" s="7">
+      <c r="U3" s="3">
         <v>2.5399999999999998E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3">
         <f>35.5635</f>
         <v>35.563499999999998</v>
       </c>
-      <c r="C4" s="8">
+      <c r="E4" s="3">
         <v>34.139600000000002</v>
       </c>
-      <c r="D4" s="8">
+      <c r="F4" s="3">
         <v>32.776600000000002</v>
       </c>
-      <c r="E4" s="8">
+      <c r="G4" s="3">
         <v>31.2685</v>
       </c>
-      <c r="F4" s="8">
+      <c r="H4" s="3">
         <v>28.753799999999998</v>
       </c>
-      <c r="G4" s="8">
+      <c r="I4" s="3">
         <v>26.310500000000001</v>
       </c>
-      <c r="H4" s="8">
+      <c r="J4" s="3">
         <v>23.9998</v>
       </c>
-      <c r="I4" s="8">
+      <c r="K4" s="3">
         <v>22.046399999999998</v>
       </c>
-      <c r="J4" s="8">
+      <c r="L4" s="3">
         <v>20.389199999999999</v>
       </c>
-      <c r="K4" s="8">
+      <c r="M4" s="3">
         <v>18.9574</v>
       </c>
-      <c r="L4" s="8">
+      <c r="N4" s="3">
         <v>17.706</v>
       </c>
-      <c r="M4" s="8">
+      <c r="O4" s="3">
         <v>16.599900000000002</v>
       </c>
-      <c r="N4" s="8">
+      <c r="P4" s="3">
         <v>15.610900000000001</v>
       </c>
-      <c r="O4" s="8">
+      <c r="Q4" s="3">
         <v>14.713900000000001</v>
       </c>
-      <c r="P4" s="8">
+      <c r="R4" s="3">
         <v>13.9732</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="S4" s="3">
         <v>13.8969</v>
       </c>
-      <c r="R4" s="8">
+      <c r="T4" s="3">
         <v>14.476699999999999</v>
       </c>
-      <c r="S4" s="8">
+      <c r="U4" s="3">
         <v>11.4519</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5</v>
+      </c>
+      <c r="I5" s="6">
+        <v>6</v>
+      </c>
+      <c r="J5" s="6">
         <v>7</v>
       </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="K5" s="6">
+        <v>8</v>
+      </c>
+      <c r="L5" s="6">
+        <v>9</v>
+      </c>
+      <c r="M5" s="6">
+        <v>10</v>
+      </c>
+      <c r="N5" s="6">
+        <v>11</v>
+      </c>
+      <c r="O5" s="6">
+        <v>12</v>
+      </c>
+      <c r="P5" s="6">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>14</v>
+      </c>
+      <c r="R5" s="6">
+        <v>15</v>
+      </c>
+      <c r="S5" s="6">
+        <v>16</v>
+      </c>
+      <c r="T5" s="6">
+        <v>17</v>
+      </c>
+      <c r="U5" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4">
+        <f>B1-B8</f>
+        <v>9.9999999999999395E-5</v>
+      </c>
+      <c r="C6" s="4">
+        <f>C1-B1</f>
+        <v>1.2400000000000001E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <f>D1-C1</f>
+        <v>1.0814071628143254E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <f>E1-D1</f>
+        <v>3.5560071120142311E-3</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" ref="F6" si="1">F1-E1</f>
+        <v>3.5560071120142173E-3</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" ref="G6" si="2">G1-F1</f>
+        <v>4.0792481584963208E-3</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" ref="H6" si="3">H1-G1</f>
+        <v>7.0612141224282443E-3</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" ref="I6" si="4">I1-H1</f>
+        <v>7.0815341630683301E-3</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" ref="J6" si="5">J1-I1</f>
+        <v>7.0815341630683232E-3</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" ref="K6" si="6">K1-J1</f>
+        <v>7.0815341630683232E-3</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" ref="L6" si="7">L1-K1</f>
+        <v>7.0815341630683232E-3</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" ref="M6" si="8">M1-L1</f>
+        <v>7.0815341630683371E-3</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" ref="N6" si="9">N1-M1</f>
+        <v>7.0815341630683232E-3</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" ref="O6" si="10">O1-N1</f>
+        <v>7.0815341630683232E-3</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" ref="P6" si="11">P1-O1</f>
+        <v>7.0815341630683232E-3</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>Q1-P1</f>
+        <v>7.0815341630683371E-3</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" ref="R6" si="12">R1-Q1</f>
+        <v>7.0815341630683232E-3</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" ref="S6" si="13">S1-R1</f>
+        <v>7.0815341630683371E-3</v>
+      </c>
+      <c r="T6" s="4">
+        <f>T1-S1</f>
+        <v>6.8046736093471394E-3</v>
+      </c>
+      <c r="U6" s="4">
+        <f>U1-T1</f>
+        <v>9.321818643638069E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="11">
-        <v>4</v>
-      </c>
-      <c r="F5" s="11">
-        <v>5</v>
-      </c>
-      <c r="G5" s="11">
-        <v>6</v>
-      </c>
-      <c r="H5" s="11">
-        <v>7</v>
-      </c>
-      <c r="I5" s="11">
-        <v>8</v>
-      </c>
-      <c r="J5" s="11">
-        <v>9</v>
-      </c>
-      <c r="K5" s="11">
-        <v>10</v>
-      </c>
-      <c r="L5" s="11">
-        <v>11</v>
-      </c>
-      <c r="M5" s="11">
-        <v>12</v>
-      </c>
-      <c r="N5" s="11">
-        <v>13</v>
-      </c>
-      <c r="O5" s="11">
-        <v>14</v>
-      </c>
-      <c r="P5" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>16</v>
-      </c>
-      <c r="R5" s="11">
-        <v>17</v>
-      </c>
-      <c r="S5" s="11">
-        <v>18</v>
-      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3">
-        <f>B1-B8</f>
-        <v>2.3314071628143255E-2</v>
-      </c>
-      <c r="C6" s="3">
-        <f>C1-B1</f>
-        <v>3.5560071120142311E-3</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" ref="D6:N6" si="1">D1-C1</f>
-        <v>3.5560071120142173E-3</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="1"/>
-        <v>4.0792481584963208E-3</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="1"/>
-        <v>7.0612141224282443E-3</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="1"/>
-        <v>7.0815341630683301E-3</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="1"/>
-        <v>7.0815341630683232E-3</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="1"/>
-        <v>7.0815341630683232E-3</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" si="1"/>
-        <v>7.0815341630683232E-3</v>
-      </c>
-      <c r="K6" s="3">
-        <f t="shared" si="1"/>
-        <v>7.0815341630683371E-3</v>
-      </c>
-      <c r="L6" s="3">
-        <f t="shared" si="1"/>
-        <v>7.0815341630683232E-3</v>
-      </c>
-      <c r="M6" s="3">
-        <f t="shared" si="1"/>
-        <v>7.0815341630683232E-3</v>
-      </c>
-      <c r="N6" s="3">
-        <f t="shared" si="1"/>
-        <v>7.0815341630683232E-3</v>
-      </c>
-      <c r="O6" s="3">
-        <f>O1-N1</f>
-        <v>7.0815341630683371E-3</v>
-      </c>
-      <c r="P6" s="3">
-        <f t="shared" ref="P6:Q6" si="2">P1-O1</f>
-        <v>7.0815341630683232E-3</v>
-      </c>
-      <c r="Q6" s="3">
-        <f t="shared" si="2"/>
-        <v>7.0815341630683371E-3</v>
-      </c>
-      <c r="R6" s="3">
-        <f>R1-Q1</f>
-        <v>6.8046736093471394E-3</v>
-      </c>
-      <c r="S6" s="3">
-        <f>S1-R1</f>
-        <v>9.321818643638069E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <f>5.5/39.37</f>
         <v>0.13970027940055882</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
